--- a/IDA2015/PreliminaryExperiments/LocalConceptDrift-SeaLevel.xlsx
+++ b/IDA2015/PreliminaryExperiments/LocalConceptDrift-SeaLevel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="16000" tabRatio="500" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="25600" windowHeight="15840" tabRatio="500" firstSheet="4" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Local-W100" sheetId="3" r:id="rId1"/>
@@ -11078,11 +11078,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2119148200"/>
-        <c:axId val="-2119145208"/>
+        <c:axId val="-2143923000"/>
+        <c:axId val="-2143926360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2119148200"/>
+        <c:axId val="-2143923000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11092,12 +11092,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119145208"/>
+        <c:crossAx val="-2143926360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2119145208"/>
+        <c:axId val="-2143926360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11108,7 +11108,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119148200"/>
+        <c:crossAx val="-2143923000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12344,11 +12344,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2115036952"/>
-        <c:axId val="-2114996664"/>
+        <c:axId val="-2144012472"/>
+        <c:axId val="-2144015464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2115036952"/>
+        <c:axId val="-2144012472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12358,12 +12358,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2114996664"/>
+        <c:crossAx val="-2144015464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2114996664"/>
+        <c:axId val="-2144015464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12374,14 +12374,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115036952"/>
+        <c:crossAx val="-2144012472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -26979,11 +26978,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2103937048"/>
-        <c:axId val="-2104057832"/>
+        <c:axId val="-2144065368"/>
+        <c:axId val="-2144068504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2103937048"/>
+        <c:axId val="-2144065368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26993,12 +26992,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2104057832"/>
+        <c:crossAx val="-2144068504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2104057832"/>
+        <c:axId val="-2144068504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27009,14 +27008,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103937048"/>
+        <c:crossAx val="-2144065368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -28642,11 +28640,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2102795752"/>
-        <c:axId val="-2102792616"/>
+        <c:axId val="-2144127000"/>
+        <c:axId val="-2144130136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2102795752"/>
+        <c:axId val="-2144127000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28656,12 +28654,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102792616"/>
+        <c:crossAx val="-2144130136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2102792616"/>
+        <c:axId val="-2144130136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -28672,14 +28670,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2102795752"/>
+        <c:crossAx val="-2144127000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -32358,11 +32355,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2115328280"/>
-        <c:axId val="2120012472"/>
+        <c:axId val="-2144166040"/>
+        <c:axId val="-2144169000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2115328280"/>
+        <c:axId val="-2144166040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32372,12 +32369,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120012472"/>
+        <c:crossAx val="-2144169000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2120012472"/>
+        <c:axId val="-2144169000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32388,7 +32385,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115328280"/>
+        <c:crossAx val="-2144166040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -32443,9 +32440,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
           <c:xVal>
             <c:numRef>
               <c:f>Global!$G$2:$G$61</c:f>
@@ -32834,11 +32828,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2103493480"/>
-        <c:axId val="-2103491112"/>
+        <c:axId val="-2144216488"/>
+        <c:axId val="-2144219512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2103493480"/>
+        <c:axId val="-2144216488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32848,12 +32842,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103491112"/>
+        <c:crossAx val="-2144219512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2103491112"/>
+        <c:axId val="-2144219512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -32864,7 +32858,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2103493480"/>
+        <c:crossAx val="-2144216488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -32940,7 +32934,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
@@ -57728,8 +57722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I602"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A580" workbookViewId="0">
-      <selection activeCell="C602" sqref="C602"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3:I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
